--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>JMS</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>Books_Topics</t>
+  </si>
+  <si>
+    <t>Message Listener example</t>
+  </si>
+  <si>
+    <t>https://examples.javacodegeeks.com/enterprise-java/jms/jms-messagelistener-example/</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,11 +680,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,8 +995,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.75" customWidth="1"/>
+    <col min="2" max="2" width="126.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1038,8 +1050,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.25" customWidth="1"/>
+    <col min="2" max="2" width="119.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1064,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1206,13 +1218,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.75" customWidth="1"/>
+    <col min="2" max="2" width="116.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1245,13 +1257,13 @@
       <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
@@ -1260,31 +1272,36 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1"/>
@@ -1315,7 +1332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="120">
+    <row r="19" spans="1:2" ht="105">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1395,7 +1412,9 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="B25" r:id="rId6"/>
     <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="JMS" sheetId="3" r:id="rId2"/>
     <sheet name="ActiveMQ" sheetId="2" r:id="rId3"/>
+    <sheet name="Kafka" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>JMS</t>
   </si>
@@ -476,6 +477,60 @@
   </si>
   <si>
     <t>https://examples.javacodegeeks.com/enterprise-java/jms/jms-messagelistener-example/</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Getting Started with Apache Kafka [Course]</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>What is Apache Kafka</t>
+  </si>
+  <si>
+    <t>Messaging system to handle huge amount of message loads between applications. To be more specific it is pub-sub messaging system</t>
+  </si>
+  <si>
+    <t>Where does kafka keeps all messages</t>
+  </si>
+  <si>
+    <t>it places messages in central physical machine called Broker</t>
+  </si>
+  <si>
+    <t>What is Apache Kafka Broker</t>
+  </si>
+  <si>
+    <t>Software process/executable/daemon process runs on a machine(physical/virtual) which will have an access to local file system which it uses to store messages which it categorises as topics</t>
+  </si>
+  <si>
+    <t>Apache Kafka Cluster</t>
+  </si>
+  <si>
+    <t>Group of multiple kafka brokers. We can have single or multiple brokers on a single machine or on different machies. If we have 2 brokers then we will say we have Cluster of 2</t>
+  </si>
+  <si>
+    <t>It does not matter whether brokers are running in same machine or different machines. What matters is how independent brokers are grouped to form a cluster. Grouping mechanism that determines cluster's membership of brokers is an important part of kafka's archetecture and what really enables its ability to scale to thousands of thousands of broker and  be distributed in fault tolerant way. For the sake of putting down a place holder, this is where Apache Zookeeper comes in</t>
+  </si>
+  <si>
+    <t>What is distributed system</t>
+  </si>
+  <si>
+    <t>collection of resources that have instructions to achieve a special goal or function. Distributed system is the one that consists of multiple independent resources, also known as workers or nodes, sometimes even called worker nodes. The reason there are multiple nodes is to spread the work around. persumably to get more done than what could otherwise be achieved with less. Inorder to do more work there needs to coordination among all of the available worker nodes to ensure consistency and optimal progress towards the overall task. Without coordination it would be difficult to divide the work appropriately and track progress to ensure most optimal use of resources. Coordination is not possible without clear and thorough communication between all components with in the system</t>
+  </si>
+  <si>
+    <t>Applying above distributed system definition to kafka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In kafka these worker nodes are kafka brokers. </t>
   </si>
 </sst>
 </file>
@@ -638,7 +693,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -659,6 +714,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -689,9 +750,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -987,16 +1046,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.75" customWidth="1"/>
-    <col min="2" max="2" width="126.75" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1030,10 +1089,16 @@
         <v>62</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="JMS!A1" display="JMS"/>
     <hyperlink ref="B2" location="ActiveMQ!A1" display="ActiveMQ"/>
+    <hyperlink ref="A6" location="Kafka!A1" display="Apache Kafka"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1050,8 +1115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.25" customWidth="1"/>
-    <col min="2" max="2" width="119.625" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1063,21 +1128,21 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1155,13 +1220,13 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1169,13 +1234,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1183,7 +1248,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1216,15 +1281,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="2" width="116.25" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="116.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1236,70 +1301,70 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1313,13 +1378,13 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1327,12 +1392,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105">
+    <row r="19" spans="1:2" ht="120">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1349,7 +1414,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1357,12 +1422,12 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="300">
+    <row r="23" spans="1:2" ht="315">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1370,7 +1435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="315">
+    <row r="24" spans="1:2" ht="330">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1417,4 +1482,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.85546875" customWidth="1"/>
+    <col min="2" max="2" width="120" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="105">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B1" location="Kafka!A2" display="Up"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -693,7 +693,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,6 +717,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1128,13 +1132,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1142,7 +1146,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1220,13 +1224,13 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1234,13 +1238,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1248,7 +1252,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1301,64 +1305,64 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -1378,13 +1382,13 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1392,7 +1396,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -1414,7 +1418,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1422,7 +1426,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1508,10 +1512,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1522,62 +1526,62 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="20"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -17,15 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>JMS</t>
-  </si>
-  <si>
-    <t>Specifications</t>
-  </si>
-  <si>
-    <t>Implementations</t>
   </si>
   <si>
     <t>JMS basic implementation with Glassfish server</t>
@@ -470,9 +464,6 @@
     <t>Apache ActiveMQ is the most popular and powerful open source messaging server. ActiveMQ apart from being powerful and open source, it is the most light weight messaging server compared to other messaging servers like JBossMQ and Tibco EMS.</t>
   </si>
   <si>
-    <t>Books_Topics</t>
-  </si>
-  <si>
     <t>Message Listener example</t>
   </si>
   <si>
@@ -491,9 +482,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>Definitions</t>
-  </si>
-  <si>
     <t>What is Apache Kafka</t>
   </si>
   <si>
@@ -509,9 +497,6 @@
     <t>What is Apache Kafka Broker</t>
   </si>
   <si>
-    <t>Software process/executable/daemon process runs on a machine(physical/virtual) which will have an access to local file system which it uses to store messages which it categorises as topics</t>
-  </si>
-  <si>
     <t>Apache Kafka Cluster</t>
   </si>
   <si>
@@ -531,6 +516,107 @@
   </si>
   <si>
     <t xml:space="preserve">In kafka these worker nodes are kafka brokers. </t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>E:\workspaces\jms-ws</t>
+  </si>
+  <si>
+    <t>Workspace and Projects</t>
+  </si>
+  <si>
+    <t>Github Repository</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/ActiveMQAllPractice.git</t>
+  </si>
+  <si>
+    <t>Eclipse Workspace</t>
+  </si>
+  <si>
+    <t>Active MQ Setup and Getting Started</t>
+  </si>
+  <si>
+    <t>1. Camel + Active MQ
+2. Camel + Active MQ + Spring</t>
+  </si>
+  <si>
+    <t>Active MQ Setup + Core Java (producer and consumer)</t>
+  </si>
+  <si>
+    <t>Active MQ Getting Started</t>
+  </si>
+  <si>
+    <t>Eclipse workspace</t>
+  </si>
+  <si>
+    <t>Getting Started with Apache Kafka - Definitions</t>
+  </si>
+  <si>
+    <t>Producers and Consumers will produces message to common location called</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>About Topic</t>
+  </si>
+  <si>
+    <t>1. Topic will have specific name that can be created up-front or dynamically
+2. As long as producers know topic name and has permission to send message, they can send a message to topic
+3. Consumers will consume the messages based on topic name they are interested in</t>
+  </si>
+  <si>
+    <t>1. Place where kafka keeps and maintains topic is called broker. 
+Software process/executable/daemon process runs on a machine(physical/virtual) which will have an access to local file system which it uses to store messages which it categorises as topics</t>
+  </si>
+  <si>
+    <t>Reliable work distribution among brokers in Kafka cluster</t>
+  </si>
+  <si>
+    <t>First, the controller (one who manages the cluster) needs to know who is available and in good health and risk policy.
+One good example of risk policy is redundancy level. Thing that determines what level of replication to have in case assigned worker(broker) fails.</t>
+  </si>
+  <si>
+    <t>Replication Factor</t>
+  </si>
+  <si>
+    <t>Risk factor to protect against loss.</t>
+  </si>
+  <si>
+    <t>Consensus (or) Gossip Protocol</t>
+  </si>
+  <si>
+    <t>Every component in a distributed system has to keep some form of communication between themselves.  Without this distributed system cannot operate.</t>
+  </si>
+  <si>
+    <t>Apache Zoo keeper</t>
+  </si>
+  <si>
+    <t>Centralized services for maintaining metadata about cluster of distributed nodes. Like
+1. Bootstrap and run time Configuration information
+2. Health and synchronization status
+3. cluster and quorum group membership including the roles of elected nodes
+Some other systems depend on zoo keeper: Apache Hadoop, HBase, Mesos, Solr, Redis, Neo 4J database.</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Zookeepr by it self is a distributed system, and for it to run reliably, has to have multiple nodes which form Ensemble. 
+Ensemble is like a cluster for zookeeper.</t>
+  </si>
+  <si>
+    <t>Basics for Kafka installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Download the binary package
+2. Extract the archive
+3. Linux Operating system (recomonded OS for running apache kafka)
+4. JDK 8 installed
+5. Scala 2.11.x (or more) installed - since apache kafks mostly written in scala, so we need scala run time. </t>
   </si>
 </sst>
 </file>
@@ -693,14 +779,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -724,15 +807,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -740,9 +850,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -750,9 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -1050,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -1062,40 +1166,32 @@
     <col min="2" max="2" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>68</v>
+      <c r="A6" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1110,11 +1206,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1124,154 +1220,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+    </row>
+    <row r="2" spans="1:2" s="11" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:2" s="11" customFormat="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="11" customFormat="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="11" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="11" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2" s="11" customFormat="1">
+      <c r="A7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="11" customFormat="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="24"/>
+      <c r="B11" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="24"/>
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JMS!A2" display="Up"/>
@@ -1283,306 +1417,385 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="116.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" s="11" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="11" customFormat="1">
+      <c r="A18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="120">
+      <c r="A23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="300">
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="315">
+      <c r="A28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="21"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="120">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="315">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="330">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="6">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
     <hyperlink ref="B1" location="ActiveMQ!A2" display="Up"/>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="A11" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="B25" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B29" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="67.85546875" customWidth="1"/>
-    <col min="2" max="2" width="120" style="7" customWidth="1"/>
+    <col min="2" max="2" width="120" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>34</v>
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="26"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
+      <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B9" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="30"/>
+      <c r="B11" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="10" t="s">
+    <row r="12" spans="1:2" ht="105">
+      <c r="A12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="22" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="22"/>
-      <c r="B11" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="105">
-      <c r="A12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>85</v>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1807,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
     <hyperlink ref="B1" location="Kafka!A2" display="Up"/>
-    <hyperlink ref="A3" r:id="rId1" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1208,9 +1208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1641,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="JMS" sheetId="3" r:id="rId2"/>
     <sheet name="ActiveMQ" sheetId="2" r:id="rId3"/>
     <sheet name="Kafka" sheetId="4" r:id="rId4"/>
+    <sheet name="IBM-MQ" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>JMS</t>
   </si>
@@ -617,6 +618,9 @@
 3. Linux Operating system (recomonded OS for running apache kafka)
 4. JDK 8 installed
 5. Scala 2.11.x (or more) installed - since apache kafks mostly written in scala, so we need scala run time. </t>
+  </si>
+  <si>
+    <t>IBM MQ</t>
   </si>
 </sst>
 </file>
@@ -779,7 +783,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,6 +834,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,6 +1213,11 @@
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1208,9 +1234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1228,10 +1254,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2" s="11" customFormat="1">
       <c r="A3" s="10"/>
@@ -1246,10 +1272,10 @@
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="11" customFormat="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1">
       <c r="A7" s="17" t="s">
@@ -1264,13 +1290,13 @@
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1278,7 +1304,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="24"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1356,13 +1382,13 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1370,13 +1396,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1384,7 +1410,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="24"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1419,9 +1445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1439,18 +1465,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="13"/>
@@ -1462,18 +1488,18 @@
       <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1481,27 +1507,27 @@
       <c r="A8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="16"/>
@@ -1515,10 +1541,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="33"/>
     </row>
     <row r="17" spans="1:2" s="11" customFormat="1">
       <c r="A17" s="12" t="s">
@@ -1537,13 +1563,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1551,7 +1577,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="27"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="12" t="s">
         <v>62</v>
       </c>
@@ -1573,7 +1599,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1581,7 +1607,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
@@ -1661,10 +1687,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1675,10 +1701,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="9" t="s">
@@ -1705,7 +1731,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1713,7 +1739,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="30"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>76</v>
       </c>
@@ -1812,4 +1838,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="113.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/5_Definitions_JMS.xlsx
+++ b/Definitions/5_Definitions_JMS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>JMS</t>
   </si>
@@ -474,12 +474,6 @@
     <t>Apache Kafka</t>
   </si>
   <si>
-    <t>Getting Started with Apache Kafka [Course]</t>
-  </si>
-  <si>
-    <t>Pluralsight</t>
-  </si>
-  <si>
     <t>Materials</t>
   </si>
   <si>
@@ -622,12 +616,15 @@
   <si>
     <t>IBM MQ</t>
   </si>
+  <si>
+    <t>Update in Cerebro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +884,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -933,7 +938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,9 +970,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -999,6 +1005,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1174,20 +1181,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="126.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,29 +1202,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1239,13 +1246,13 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="119.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1253,49 +1260,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="11" customFormat="1">
+    <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="29"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1">
+    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="11" customFormat="1">
+    <row r="4" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="11" customFormat="1">
+    <row r="5" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="11" customFormat="1">
+    <row r="6" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" s="11" customFormat="1">
+    <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="11" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>1</v>
       </c>
@@ -1303,13 +1310,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,13 +1388,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="30"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
@@ -1395,13 +1402,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
@@ -1409,13 +1416,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1442,21 +1449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="127.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="127.44140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
@@ -1464,75 +1471,75 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="15"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="36"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>63</v>
       </c>
@@ -1540,35 +1547,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="33"/>
-    </row>
-    <row r="17" spans="1:2" s="11" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="11" customFormat="1">
-      <c r="A18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="33"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>47</v>
       </c>
@@ -1576,13 +1583,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="120">
+    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>41</v>
       </c>
@@ -1606,13 +1613,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="300">
+    <row r="27" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="315">
+    <row r="28" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>34</v>
       </c>
@@ -1664,21 +1671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" customWidth="1"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
     <col min="2" max="2" width="120" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1686,142 +1693,140 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="33"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="33"/>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60">
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B15" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B19" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="19" t="s">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="19" t="s">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1833,15 +1838,14 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
     <hyperlink ref="B1" location="Kafka!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1" display="https://app.pluralsight.com/library/courses/apache-kafka-getting-started"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1849,13 +1853,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="113.42578125" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="113.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
